--- a/Project1/Power_KWH_Forecasts.xlsx
+++ b/Project1/Power_KWH_Forecasts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">YYYY.MMM</t>
   </si>
@@ -23,13 +23,7 @@
     <t xml:space="preserve">2014-Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">7390315.28426874</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6349237.28312103</t>
   </si>
   <si>
     <t xml:space="preserve">2014-Mar</t>
@@ -403,96 +397,96 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" t="n">
+        <v>8983232.08918099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7748983.56337687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6681797.92539671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6079583.62855005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5742711.80309982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7404384.73324443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8108575.19548922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9661152.05890194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8776089.48749357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6550185.33343634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5646451.09721803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7096987.08922032</v>
       </c>
     </row>
   </sheetData>
